--- a/src/img/bar-chart/Информация для сайта_Сценарии для Никиты.xlsx
+++ b/src/img/bar-chart/Информация для сайта_Сценарии для Никиты.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="существующее" sheetId="1" state="visible" r:id="rId2"/>
@@ -480,7 +480,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +489,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FFA6A6A6"/>
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -509,6 +509,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDEADA"/>
         <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -583,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,16 +614,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -636,7 +642,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,23 +662,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,10 +690,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -692,11 +698,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -720,7 +730,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,7 +746,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -744,11 +754,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,7 +774,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,11 +794,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,7 +806,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,23 +818,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,7 +838,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,15 +858,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,7 +910,7 @@
       <rgbColor rgb="FFFDEADA"/>
       <rgbColor rgb="FFDAEEF3"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF0070C0"/>
       <rgbColor rgb="FFCCC1DA"/>
       <rgbColor rgb="FF000080"/>
@@ -907,7 +921,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFDBEEF4"/>
       <rgbColor rgb="FFB7DEE8"/>
       <rgbColor rgb="FFE4DD88"/>
@@ -919,7 +933,7 @@
       <rgbColor rgb="FF4BACC6"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFBCD89A"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFE46C0A"/>
       <rgbColor rgb="FF8064A2"/>
       <rgbColor rgb="FF999999"/>
@@ -948,10 +962,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.292091007583965"/>
-          <c:y val="0.0964688751365126"/>
-          <c:w val="0.707822318526544"/>
-          <c:h val="0.668729523116127"/>
+          <c:x val="0.292085644937587"/>
+          <c:y val="0.0964805825242718"/>
+          <c:w val="0.707784327323162"/>
+          <c:h val="0.668689320388349"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1359,10 +1373,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110588400505547"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889271169779525"/>
-          <c:h val="0.841536243822076"/>
+          <c:x val="0.110596165999579"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889193174636613"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1747,11 +1761,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="90083260"/>
-        <c:axId val="37224907"/>
+        <c:axId val="40184660"/>
+        <c:axId val="11601210"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90083260"/>
+        <c:axId val="40184660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37224907"/>
+        <c:crossAx val="11601210"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1791,7 +1805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37224907"/>
+        <c:axId val="11601210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1822,7 +1836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90083260"/>
+        <c:crossAx val="40184660"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,10 +1874,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.219436921332745"/>
+          <c:x val="0.21940157480315"/>
           <c:y val="0"/>
-          <c:w val="0.780500094476286"/>
-          <c:h val="0.99967394848386"/>
+          <c:w val="0.780472440944882"/>
+          <c:h val="0.99959240238037"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2161,9 +2175,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.20074107781317"/>
-          <c:w val="0.936734861556158"/>
-          <c:h val="0.798218812975362"/>
+          <c:y val="0.200754128201794"/>
+          <c:w val="0.936691179491393"/>
+          <c:h val="0.798140683916266"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2457,10 +2471,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.137234593474883"/>
-          <c:y val="0.0578653051300754"/>
-          <c:w val="0.707729155877783"/>
-          <c:h val="0.668733284707027"/>
+          <c:x val="0.137243477697935"/>
+          <c:y val="0.0578723404255319"/>
+          <c:w val="0.707710234997087"/>
+          <c:h val="0.668693009118541"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2837,10 +2851,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110575996917742"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889295575675849"/>
-          <c:h val="0.841536243822076"/>
+          <c:x val="0.110583097867968"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889224248651426"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3108,6 +3122,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3302,11 +3319,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="21327161"/>
-        <c:axId val="10808802"/>
+        <c:axId val="84875042"/>
+        <c:axId val="39180068"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21327161"/>
+        <c:axId val="84875042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3355,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10808802"/>
+        <c:crossAx val="39180068"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3346,7 +3363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10808802"/>
+        <c:axId val="39180068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3377,7 +3394,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21327161"/>
+        <c:crossAx val="84875042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3440,10 +3457,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110525631017434"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889344262295082"/>
-          <c:h val="0.841536243822076"/>
+          <c:x val="0.110540013012362"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889264801561483"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3868,11 +3885,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="15259197"/>
-        <c:axId val="96008281"/>
+        <c:axId val="88863552"/>
+        <c:axId val="2995268"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15259197"/>
+        <c:axId val="88863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3921,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96008281"/>
+        <c:crossAx val="2995268"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3912,7 +3929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96008281"/>
+        <c:axId val="2995268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3943,7 +3960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15259197"/>
+        <c:crossAx val="88863552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3982,9 +3999,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.110613370089593"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889248793935217"/>
-          <c:h val="0.841536243822076"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889179875947622"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4369,11 +4386,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="95741367"/>
-        <c:axId val="10412781"/>
+        <c:axId val="49264219"/>
+        <c:axId val="19424234"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95741367"/>
+        <c:axId val="49264219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4405,7 +4422,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10412781"/>
+        <c:crossAx val="19424234"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4413,7 +4430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10412781"/>
+        <c:axId val="19424234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -4444,7 +4461,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95741367"/>
+        <c:crossAx val="49264219"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4482,10 +4499,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110575996917742"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889295575675849"/>
-          <c:h val="0.841536243822076"/>
+          <c:x val="0.110583097867968"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889224248651426"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4947,11 +4964,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="6989771"/>
-        <c:axId val="91022989"/>
+        <c:axId val="7461059"/>
+        <c:axId val="81394082"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6989771"/>
+        <c:axId val="7461059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4983,7 +5000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91022989"/>
+        <c:crossAx val="81394082"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4991,7 +5008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91022989"/>
+        <c:axId val="81394082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -5022,7 +5039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6989771"/>
+        <c:crossAx val="7461059"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5060,10 +5077,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110534172778607"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.88933601609658"/>
-          <c:h val="0.841536243822076"/>
+          <c:x val="0.110548523206751"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889256734826355"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5448,11 +5465,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="31180633"/>
-        <c:axId val="83373508"/>
+        <c:axId val="9495299"/>
+        <c:axId val="28920369"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31180633"/>
+        <c:axId val="9495299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,7 +5501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83373508"/>
+        <c:crossAx val="28920369"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5492,7 +5509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83373508"/>
+        <c:axId val="28920369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -5523,7 +5540,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31180633"/>
+        <c:crossAx val="9495299"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5562,9 +5579,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.110591797774998"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889276545322888"/>
-          <c:h val="0.841536243822076"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889210716871832"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5955,11 +5972,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62526249"/>
-        <c:axId val="47982188"/>
+        <c:axId val="16631780"/>
+        <c:axId val="34262129"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62526249"/>
+        <c:axId val="16631780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,7 +6008,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47982188"/>
+        <c:crossAx val="34262129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5999,7 +6016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47982188"/>
+        <c:axId val="34262129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -6030,7 +6047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62526249"/>
+        <c:crossAx val="16631780"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6069,9 +6086,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.110545660163981"/>
-          <c:y val="0.0555498352553542"/>
-          <c:w val="0.889312977099237"/>
-          <c:h val="0.841536243822076"/>
+          <c:y val="0.055552695258199"/>
+          <c:w val="0.889242295730845"/>
+          <c:h val="0.841476599907326"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6453,11 +6470,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="26341039"/>
-        <c:axId val="53850096"/>
+        <c:axId val="90822642"/>
+        <c:axId val="64492354"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26341039"/>
+        <c:axId val="90822642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6489,7 +6506,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53850096"/>
+        <c:crossAx val="64492354"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6497,7 +6514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53850096"/>
+        <c:axId val="64492354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6528,7 +6545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26341039"/>
+        <c:crossAx val="90822642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6565,9 +6582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
+      <xdr:colOff>415440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6575,8 +6592,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2008800" y="4104720"/>
-        <a:ext cx="8306640" cy="2966400"/>
+        <a:off x="2008800" y="3967560"/>
+        <a:ext cx="8305560" cy="2966040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6595,9 +6612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6605,8 +6622,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9118080" y="4183200"/>
-        <a:ext cx="5560920" cy="2961000"/>
+        <a:off x="9117360" y="4046040"/>
+        <a:ext cx="5560560" cy="2960640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6625,9 +6642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
+      <xdr:colOff>175320</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6635,8 +6652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="233280" y="6571800"/>
-        <a:ext cx="5605920" cy="6992280"/>
+        <a:off x="233280" y="6434640"/>
+        <a:ext cx="5605560" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6655,9 +6672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>354960</xdr:colOff>
+      <xdr:colOff>354600</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6665,8 +6682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7296480" y="6560640"/>
-        <a:ext cx="5533560" cy="6992280"/>
+        <a:off x="7296480" y="6423480"/>
+        <a:ext cx="5532840" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6685,9 +6702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6695,8 +6712,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14466600" y="6536880"/>
-        <a:ext cx="5223240" cy="6992280"/>
+        <a:off x="14465880" y="6399720"/>
+        <a:ext cx="5223240" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6715,9 +6732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6725,8 +6742,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="214200" y="13889520"/>
-        <a:ext cx="5605920" cy="6992280"/>
+        <a:off x="214200" y="13752360"/>
+        <a:ext cx="5605560" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6745,9 +6762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6755,8 +6772,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7219440" y="13889520"/>
-        <a:ext cx="5546160" cy="6992280"/>
+        <a:off x="7219440" y="13752360"/>
+        <a:ext cx="5545440" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6775,9 +6792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6785,8 +6802,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14119920" y="13889520"/>
-        <a:ext cx="5468400" cy="6992280"/>
+        <a:off x="14119200" y="13752360"/>
+        <a:ext cx="5468400" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6805,9 +6822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>607680</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6815,8 +6832,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20961000" y="13889520"/>
-        <a:ext cx="5092920" cy="6992280"/>
+        <a:off x="20960280" y="13752360"/>
+        <a:ext cx="5092920" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6835,9 +6852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>569880</xdr:colOff>
+      <xdr:colOff>569520</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6845,8 +6862,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27724680" y="13889520"/>
-        <a:ext cx="5126760" cy="6992280"/>
+        <a:off x="27723960" y="13752360"/>
+        <a:ext cx="5126400" cy="6991920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6865,9 +6882,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6875,8 +6892,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25973640" y="4302360"/>
-        <a:ext cx="5715360" cy="4416120"/>
+        <a:off x="25973280" y="4165200"/>
+        <a:ext cx="5714640" cy="4415760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6895,9 +6912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6905,8 +6922,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18318960" y="3222000"/>
-        <a:ext cx="8762760" cy="5537520"/>
+        <a:off x="18318240" y="3130560"/>
+        <a:ext cx="8762400" cy="5537160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6923,12 +6940,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.369707475622969</cdr:x>
-      <cdr:y>0.851595680135906</cdr:y>
+      <cdr:x>0.369712205270458</cdr:x>
+      <cdr:y>0.851456310679612</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.895557963163597</cdr:x>
-      <cdr:y>0.941269263438903</cdr:y>
+      <cdr:x>0.895501040221914</cdr:x>
+      <cdr:y>0.941019417475728</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -6937,8 +6954,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm>
-          <a:off x="3071160" y="2526480"/>
-          <a:ext cx="4368240" cy="266040"/>
+          <a:off x="3070800" y="2525760"/>
+          <a:ext cx="4367160" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6984,12 +7001,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.243008803728638</cdr:x>
-      <cdr:y>0.822757111597374</cdr:y>
+      <cdr:x>0.243024535508513</cdr:x>
+      <cdr:y>0.822613981762918</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.768772656654583</cdr:x>
-      <cdr:y>0.912472647702407</cdr:y>
+      <cdr:x>0.768692950087396</cdr:x>
+      <cdr:y>0.912218844984802</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -6998,8 +7015,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm>
-          <a:off x="1351440" y="2436480"/>
-          <a:ext cx="2923920" cy="265680"/>
+          <a:off x="1351440" y="2435760"/>
+          <a:ext cx="2923200" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7051,8 +7068,8 @@
   </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7110,12 +7127,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
         <v>6</v>
       </c>
@@ -7124,52 +7142,52 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -7200,7 +7218,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -7224,17 +7242,17 @@
         <f aca="false">F10+F11+F12</f>
         <v>17</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="14" t="n">
         <f aca="false">G10+G11+G12</f>
         <v>94100</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="15" t="n">
         <v>462.84</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="14" t="n">
         <v>1500</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="15" t="n">
@@ -7253,132 +7271,134 @@
       <c r="P9" s="16" t="n">
         <v>17.9</v>
       </c>
-      <c r="R9" s="14" t="n">
+      <c r="R9" s="17" t="n">
         <v>5283.62380107405</v>
       </c>
-      <c r="S9" s="14" t="n">
+      <c r="S9" s="17" t="n">
         <v>767.947416</v>
       </c>
-      <c r="T9" s="14" t="n">
+      <c r="T9" s="17" t="n">
         <v>110.662819194539</v>
       </c>
-      <c r="U9" s="14" t="n">
+      <c r="U9" s="17" t="n">
         <v>272426.639542662</v>
       </c>
-      <c r="V9" s="14" t="n">
+      <c r="V9" s="17" t="n">
         <v>14916.5544755844</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+    <row r="10" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="n">
+      <c r="D10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="19" t="n">
         <f aca="false">4.3*1000</f>
         <v>4300</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="20" t="n">
         <v>462.84</v>
       </c>
-      <c r="I10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19" t="n">
+      <c r="I10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="n">
         <v>405.9</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="L10" s="21" t="n">
         <v>8.2</v>
       </c>
-      <c r="M10" s="21" t="n">
+      <c r="M10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="21" t="n">
+      <c r="N10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23" t="n">
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24" t="n">
         <v>664.383873929008</v>
       </c>
-      <c r="S10" s="23" t="n">
+      <c r="S10" s="24" t="n">
         <v>64.35</v>
       </c>
-      <c r="T10" s="23" t="n">
+      <c r="T10" s="24" t="n">
         <v>2.93435344709898</v>
       </c>
-      <c r="U10" s="23" t="n">
+      <c r="U10" s="24" t="n">
         <v>12004.747774744</v>
       </c>
-      <c r="V10" s="23" t="n">
+      <c r="V10" s="24" t="n">
         <v>669.603873929008</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="n">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="n">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="7" t="n">
         <f aca="false">1.1*1000</f>
         <v>1100</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19" t="n">
+      <c r="J11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="n">
         <v>1918.8</v>
       </c>
-      <c r="L11" s="20" t="n">
+      <c r="L11" s="21" t="n">
         <v>2.4</v>
       </c>
-      <c r="M11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20" t="n">
+      <c r="M11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21" t="n">
         <v>6.8</v>
       </c>
-      <c r="O11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20" t="n">
+      <c r="O11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="21" t="n">
         <v>11.4</v>
       </c>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="25" t="n">
         <v>117.552047429621</v>
       </c>
@@ -7396,32 +7416,32 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="n">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="7" t="n">
         <f aca="false">88.7*1000</f>
         <v>88700</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19" t="n">
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="n">
         <v>430.5</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -7439,7 +7459,7 @@
       <c r="P12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="22"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="25" t="n">
         <v>4501.68787971542</v>
       </c>
@@ -7456,7 +7476,7 @@
         <v>14046.0562142258</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
@@ -7480,20 +7500,20 @@
         <f aca="false">F14+F15+F16+F17+F18</f>
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="14" t="n">
         <f aca="false">G14+G15+G16+G17+G18</f>
         <v>93500</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="15" t="n">
         <v>603.9264</v>
       </c>
-      <c r="I13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12" t="n">
+      <c r="I13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="n">
         <v>1238.72256</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="K13" s="15" t="n">
         <v>73.8</v>
       </c>
       <c r="L13" s="26" t="n">
@@ -7502,57 +7522,57 @@
       <c r="M13" s="26" t="n">
         <v>5.74</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="26" t="n">
         <v>11.76</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="14" t="n">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="17" t="n">
         <v>9923.08681603734</v>
       </c>
-      <c r="S13" s="14" t="n">
+      <c r="S13" s="17" t="n">
         <v>1055.4103508</v>
       </c>
-      <c r="T13" s="14" t="n">
+      <c r="T13" s="17" t="n">
         <v>105.74542547284</v>
       </c>
-      <c r="U13" s="14" t="n">
+      <c r="U13" s="17" t="n">
         <v>274863.265988662</v>
       </c>
-      <c r="V13" s="14" t="n">
+      <c r="V13" s="17" t="n">
         <v>19766.579176992</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="n">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="n">
         <f aca="false">11.3*1000</f>
         <v>11300</v>
       </c>
       <c r="H14" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25" t="n">
+      <c r="I14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27" t="n">
         <v>153.6</v>
       </c>
-      <c r="K14" s="25" t="n">
+      <c r="K14" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="28" t="n">
@@ -7561,16 +7581,16 @@
       <c r="M14" s="28" t="n">
         <v>1.64</v>
       </c>
-      <c r="N14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21" t="n">
+      <c r="N14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22" t="n">
         <v>0.46</v>
       </c>
       <c r="P14" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="25" t="n">
         <v>3848.16266528764</v>
       </c>
@@ -7587,33 +7607,33 @@
         <v>3848.16266528764</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="0" t="n">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="n">
         <f aca="false">1.6*1000</f>
         <v>1600</v>
       </c>
       <c r="H15" s="27" t="n">
         <v>64.7976</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25" t="n">
+      <c r="I15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
@@ -7622,16 +7642,16 @@
       <c r="M15" s="0" t="n">
         <v>3.4</v>
       </c>
-      <c r="N15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20" t="n">
+      <c r="N15" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="25" t="n">
         <v>383.652304176867</v>
       </c>
@@ -7648,55 +7668,55 @@
         <v>384.383104176867</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="n">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="7" t="n">
         <f aca="false">1.9*1000</f>
         <v>1900</v>
       </c>
       <c r="H16" s="27" t="n">
         <v>383.04</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="I16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="n">
         <v>1085.12256</v>
       </c>
       <c r="K16" s="27" t="n">
         <v>73.8</v>
       </c>
-      <c r="L16" s="29" t="n">
+      <c r="L16" s="30" t="n">
         <v>3.1</v>
       </c>
-      <c r="M16" s="29" t="n">
+      <c r="M16" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="N16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="29" t="n">
+      <c r="N16" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="30" t="n">
         <v>11.3</v>
       </c>
-      <c r="P16" s="30" t="n">
+      <c r="P16" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="23"/>
       <c r="R16" s="25" t="n">
         <v>390.378882374541</v>
       </c>
@@ -7713,31 +7733,31 @@
         <v>553.922024357405</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="0" t="n">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="n">
         <f aca="false">66.3*1000</f>
         <v>66300</v>
       </c>
-      <c r="H17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25" t="n">
+      <c r="H17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
@@ -7755,7 +7775,7 @@
       <c r="P17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="23"/>
       <c r="R17" s="25" t="n">
         <v>4156.41283059976</v>
       </c>
@@ -7772,33 +7792,33 @@
         <v>12910.1392354957</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="0" t="n">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="n">
         <f aca="false">12.4*1000</f>
         <v>12400</v>
       </c>
       <c r="H18" s="27" t="n">
         <v>156.0888</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25" t="n">
+      <c r="I18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
@@ -7816,7 +7836,7 @@
       <c r="P18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="23"/>
       <c r="R18" s="25" t="n">
         <v>1144.48013359853</v>
       </c>
@@ -7834,13 +7854,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -7848,7 +7868,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="n">
+      <c r="A21" s="33" t="n">
         <v>0.123</v>
       </c>
     </row>
@@ -7874,7 +7894,7 @@
   </sheetPr>
   <dimension ref="A2:AB17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -7904,7 +7924,7 @@
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7912,13 +7932,13 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="0" t="s">
         <v>5</v>
       </c>
@@ -7926,59 +7946,59 @@
       <c r="I6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35" t="s">
+      <c r="T6" s="37"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" s="35" t="s">
+      <c r="AA6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -7997,65 +8017,65 @@
         <v>15</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="34" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="36" t="s">
+      <c r="Y7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AA7" s="36" t="s">
+      <c r="AA7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="36"/>
+      <c r="AB7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="38" t="n">
+      <c r="B8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38" t="n">
+      <c r="D8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39" t="n">
         <v>50</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="17" t="n">
         <v>462.84</v>
       </c>
       <c r="I8" s="12" t="n">
@@ -8067,223 +8087,223 @@
       <c r="K8" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="M8" s="17" t="n">
         <v>27.7704</v>
       </c>
-      <c r="N8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14" t="n">
+      <c r="N8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14" t="n">
+      <c r="P8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="S8" s="39" t="n">
+      <c r="S8" s="40" t="n">
         <v>190.260990157652</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="39" t="n">
+      <c r="U8" s="40" t="n">
         <v>73.7752127963596</v>
       </c>
-      <c r="V8" s="39" t="n">
+      <c r="V8" s="40" t="n">
         <v>5255.85340107405</v>
       </c>
-      <c r="W8" s="39" t="n">
+      <c r="W8" s="40" t="n">
         <v>767.947416</v>
       </c>
-      <c r="X8" s="39" t="n">
+      <c r="X8" s="40" t="n">
         <v>109.162819194539</v>
       </c>
-      <c r="Y8" s="36" t="s">
+      <c r="Y8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="39" t="n">
+      <c r="Z8" s="40" t="n">
         <v>272426.639542662</v>
       </c>
-      <c r="AA8" s="39" t="n">
+      <c r="AA8" s="40" t="n">
         <v>785.081814504444</v>
       </c>
-      <c r="AB8" s="39" t="n">
+      <c r="AB8" s="40" t="n">
         <v>14897.5544755844</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="n">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="n">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="23" t="n">
+      <c r="G9" s="18"/>
+      <c r="H9" s="24" t="n">
         <v>462.84</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19" t="n">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="29" t="n">
         <v>27.7704</v>
       </c>
-      <c r="N9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19" t="n">
+      <c r="N9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19" t="n">
+      <c r="P9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="42" t="n">
+      <c r="R9" s="18"/>
+      <c r="S9" s="43" t="n">
         <v>23.9241737219848</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="42" t="n">
+      <c r="U9" s="43" t="n">
         <v>1.95623563139932</v>
       </c>
-      <c r="V9" s="43" t="n">
+      <c r="V9" s="44" t="n">
         <v>636.613473929008</v>
       </c>
-      <c r="W9" s="43" t="n">
+      <c r="W9" s="44" t="n">
         <v>64.35</v>
       </c>
-      <c r="X9" s="43" t="n">
+      <c r="X9" s="44" t="n">
         <v>1.43435344709898</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z9" s="44" t="n">
+      <c r="Z9" s="45" t="n">
         <v>12004.747774744</v>
       </c>
-      <c r="AA9" s="44" t="n">
+      <c r="AA9" s="45" t="n">
         <v>35.2423091541583</v>
       </c>
-      <c r="AB9" s="44" t="n">
+      <c r="AB9" s="45" t="n">
         <v>650.603873929008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40" t="n">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="42"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="27"/>
-      <c r="S10" s="36" t="s">
+      <c r="Q10" s="46"/>
+      <c r="S10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="36" t="s">
+      <c r="U10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="43" t="n">
+      <c r="V10" s="44" t="n">
         <v>117.552047429621</v>
       </c>
-      <c r="W10" s="43" t="n">
+      <c r="W10" s="44" t="n">
         <v>31.199116</v>
       </c>
-      <c r="X10" s="43" t="n">
+      <c r="X10" s="44" t="n">
         <v>3.42045984982935</v>
       </c>
-      <c r="Y10" s="36" t="s">
+      <c r="Y10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="44" t="n">
+      <c r="Z10" s="45" t="n">
         <v>6647.89176791809</v>
       </c>
-      <c r="AA10" s="36" t="s">
+      <c r="AA10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" s="44" t="n">
+      <c r="AB10" s="45" t="n">
         <v>200.894387429621</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="n">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="n">
         <v>34</v>
       </c>
-      <c r="H11" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="41"/>
+      <c r="H11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="42"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="27"/>
-      <c r="S11" s="36" t="s">
+      <c r="Q11" s="46"/>
+      <c r="S11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="43" t="n">
+      <c r="V11" s="44" t="n">
         <v>4501.68787971542</v>
       </c>
-      <c r="W11" s="43" t="n">
+      <c r="W11" s="44" t="n">
         <v>672.3983</v>
       </c>
-      <c r="X11" s="43" t="n">
+      <c r="X11" s="44" t="n">
         <v>104.308005897611</v>
       </c>
-      <c r="Y11" s="36" t="s">
+      <c r="Y11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="44" t="n">
+      <c r="Z11" s="45" t="n">
         <v>253774</v>
       </c>
-      <c r="AA11" s="36" t="s">
+      <c r="AA11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" s="44" t="n">
+      <c r="AB11" s="45" t="n">
         <v>14046.0562142258</v>
       </c>
     </row>
@@ -8291,95 +8311,95 @@
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="38" t="n">
+      <c r="B12" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="38" t="n">
+      <c r="D12" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="39" t="n">
         <v>42</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="17" t="n">
         <v>603.9264</v>
       </c>
       <c r="I12" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="17" t="n">
         <v>1238.72256</v>
       </c>
-      <c r="K12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14" t="n">
+      <c r="K12" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17" t="n">
         <v>36.235584</v>
       </c>
-      <c r="N12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14" t="n">
+      <c r="N12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="n">
         <v>2.862464</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P12" s="17" t="n">
         <v>2291.636736</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q12" s="17" t="n">
         <v>69.1</v>
       </c>
-      <c r="S12" s="39" t="n">
+      <c r="S12" s="40" t="n">
         <v>273.849231077312</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="39" t="n">
+      <c r="U12" s="40" t="n">
         <v>36.9420979522677</v>
       </c>
-      <c r="V12" s="39" t="n">
+      <c r="V12" s="40" t="n">
         <v>9886.85123203734</v>
       </c>
-      <c r="W12" s="39" t="n">
+      <c r="W12" s="40" t="n">
         <v>1055.4103508</v>
       </c>
-      <c r="X12" s="39" t="n">
+      <c r="X12" s="40" t="n">
         <v>102.88296147284</v>
       </c>
-      <c r="Y12" s="39" t="n">
+      <c r="Y12" s="40" t="n">
         <v>119.941900769329</v>
       </c>
-      <c r="Z12" s="39" t="n">
+      <c r="Z12" s="40" t="n">
         <v>272571.629252662</v>
       </c>
-      <c r="AA12" s="39" t="n">
+      <c r="AA12" s="40" t="n">
         <v>286.057585774125</v>
       </c>
-      <c r="AB12" s="39" t="n">
+      <c r="AB12" s="40" t="n">
         <v>19697.479176992</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="n">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="n">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="40" t="n">
+      <c r="F13" s="41" t="n">
         <v>23</v>
       </c>
       <c r="H13" s="25"/>
@@ -8387,8 +8407,8 @@
       <c r="J13" s="25" t="n">
         <v>153.6</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="M13" s="27" t="n">
+      <c r="K13" s="47"/>
+      <c r="M13" s="46" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="25" t="n">
@@ -8400,37 +8420,37 @@
       <c r="P13" s="25" t="n">
         <v>284.16</v>
       </c>
-      <c r="Q13" s="27" t="n">
+      <c r="Q13" s="46" t="n">
         <v>6.3</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="T13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="43" t="n">
+      <c r="U13" s="44" t="n">
         <v>44.2745076117452</v>
       </c>
-      <c r="V13" s="43" t="n">
+      <c r="V13" s="44" t="n">
         <v>3848.16266528764</v>
       </c>
-      <c r="W13" s="43" t="n">
+      <c r="W13" s="44" t="n">
         <v>371.4609888</v>
       </c>
-      <c r="X13" s="43" t="n">
+      <c r="X13" s="44" t="n">
         <v>6.64696436916406</v>
       </c>
-      <c r="Y13" s="43" t="n">
+      <c r="Y13" s="44" t="n">
         <v>111.338043154172</v>
       </c>
-      <c r="Z13" s="44" t="n">
+      <c r="Z13" s="45" t="n">
         <v>31353.6583426894</v>
       </c>
-      <c r="AA13" s="44" t="n">
+      <c r="AA13" s="45" t="n">
         <v>610.819470680578</v>
       </c>
-      <c r="AB13" s="44" t="n">
+      <c r="AB13" s="45" t="n">
         <v>3841.86266528764</v>
       </c>
     </row>
@@ -8438,13 +8458,13 @@
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40" t="n">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="n">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="n">
         <v>4</v>
       </c>
       <c r="H14" s="25" t="n">
@@ -8452,50 +8472,50 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="45"/>
-      <c r="M14" s="27" t="n">
+      <c r="K14" s="47"/>
+      <c r="M14" s="46" t="n">
         <v>3.887856</v>
       </c>
       <c r="N14" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="46" t="n">
+      <c r="O14" s="48" t="n">
         <v>0.647976</v>
       </c>
       <c r="P14" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="46" t="n">
         <v>41</v>
       </c>
-      <c r="S14" s="43" t="n">
+      <c r="S14" s="44" t="n">
         <v>98.6796589629006</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="43" t="n">
+      <c r="U14" s="44" t="n">
         <v>1.55020894150169</v>
       </c>
-      <c r="V14" s="43" t="n">
+      <c r="V14" s="44" t="n">
         <v>379.764448176867</v>
       </c>
-      <c r="W14" s="43" t="n">
+      <c r="W14" s="44" t="n">
         <v>11.776914</v>
       </c>
-      <c r="X14" s="43" t="n">
+      <c r="X14" s="44" t="n">
         <v>0.3565221890785</v>
       </c>
-      <c r="Y14" s="36" t="s">
+      <c r="Y14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="44" t="n">
+      <c r="Z14" s="45" t="n">
         <v>4421.52755006826</v>
       </c>
-      <c r="AA14" s="44" t="n">
+      <c r="AA14" s="45" t="n">
         <v>9.37519766285041</v>
       </c>
-      <c r="AB14" s="44" t="n">
+      <c r="AB14" s="45" t="n">
         <v>343.383104176867</v>
       </c>
     </row>
@@ -8503,15 +8523,15 @@
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="n">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40" t="n">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="40" t="n">
+      <c r="F15" s="41" t="n">
         <v>3</v>
       </c>
       <c r="H15" s="25" t="n">
@@ -8521,8 +8541,8 @@
       <c r="J15" s="25" t="n">
         <v>1085.12256</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="M15" s="27" t="n">
+      <c r="K15" s="47"/>
+      <c r="M15" s="46" t="n">
         <v>22.9824</v>
       </c>
       <c r="N15" s="25" t="n">
@@ -8534,37 +8554,37 @@
       <c r="P15" s="25" t="n">
         <v>2007.476736</v>
       </c>
-      <c r="Q15" s="27" t="n">
+      <c r="Q15" s="46" t="n">
         <v>15.5</v>
       </c>
-      <c r="S15" s="43" t="n">
+      <c r="S15" s="44" t="n">
         <v>16.9859928629969</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U15" s="43" t="n">
+      <c r="U15" s="44" t="n">
         <v>2.89688624421218</v>
       </c>
-      <c r="V15" s="43" t="n">
+      <c r="V15" s="44" t="n">
         <v>367.396482374541</v>
       </c>
-      <c r="W15" s="43" t="n">
+      <c r="W15" s="44" t="n">
         <v>14.154048</v>
       </c>
-      <c r="X15" s="43" t="n">
+      <c r="X15" s="44" t="n">
         <v>0.94844312210609</v>
       </c>
-      <c r="Y15" s="47" t="n">
+      <c r="Y15" s="49" t="n">
         <v>2.87457530312032</v>
       </c>
-      <c r="Z15" s="44" t="n">
+      <c r="Z15" s="45" t="n">
         <v>3763.1663108942</v>
       </c>
-      <c r="AA15" s="44" t="n">
+      <c r="AA15" s="45" t="n">
         <v>35.7369047972519</v>
       </c>
-      <c r="AB15" s="44" t="n">
+      <c r="AB15" s="45" t="n">
         <v>538.422024357405</v>
       </c>
     </row>
@@ -8572,17 +8592,17 @@
       <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40" t="n">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="n">
         <v>4</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="47"/>
       <c r="M16" s="25" t="n">
         <v>0</v>
       </c>
@@ -8595,37 +8615,37 @@
       <c r="P16" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="36" t="s">
+      <c r="Q16" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="36" t="s">
+      <c r="U16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V16" s="43" t="n">
+      <c r="V16" s="44" t="n">
         <v>4156.41283059976</v>
       </c>
-      <c r="W16" s="43" t="n">
+      <c r="W16" s="44" t="n">
         <v>554.02208</v>
       </c>
-      <c r="X16" s="43" t="n">
+      <c r="X16" s="44" t="n">
         <v>87.3514554539249</v>
       </c>
-      <c r="Y16" s="36" t="s">
+      <c r="Y16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z16" s="44" t="n">
+      <c r="Z16" s="45" t="n">
         <v>196163.951355631</v>
       </c>
-      <c r="AA16" s="36" t="s">
+      <c r="AA16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AB16" s="44" t="n">
+      <c r="AB16" s="45" t="n">
         <v>12910.1392354957</v>
       </c>
     </row>
@@ -8633,13 +8653,13 @@
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="n">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="n">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41" t="n">
         <v>8</v>
       </c>
       <c r="H17" s="25" t="n">
@@ -8647,8 +8667,8 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="45"/>
-      <c r="M17" s="27" t="n">
+      <c r="K17" s="47"/>
+      <c r="M17" s="46" t="n">
         <v>9.365328</v>
       </c>
       <c r="N17" s="25" t="n">
@@ -8660,37 +8680,37 @@
       <c r="P17" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="46" t="n">
         <v>6.3</v>
       </c>
-      <c r="S17" s="43" t="n">
+      <c r="S17" s="44" t="n">
         <v>122.203956294807</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="43" t="n">
+      <c r="U17" s="44" t="n">
         <v>5.85593863144989</v>
       </c>
-      <c r="V17" s="43" t="n">
+      <c r="V17" s="44" t="n">
         <v>1135.11480559853</v>
       </c>
-      <c r="W17" s="43" t="n">
+      <c r="W17" s="44" t="n">
         <v>103.99632</v>
       </c>
-      <c r="X17" s="43" t="n">
+      <c r="X17" s="44" t="n">
         <v>7.57957633856655</v>
       </c>
-      <c r="Y17" s="36" t="s">
+      <c r="Y17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z17" s="44" t="n">
+      <c r="Z17" s="45" t="n">
         <v>36869.3256933788</v>
       </c>
-      <c r="AA17" s="44" t="n">
+      <c r="AA17" s="45" t="n">
         <v>328.567007567368</v>
       </c>
-      <c r="AB17" s="44" t="n">
+      <c r="AB17" s="45" t="n">
         <v>2063.67214767442</v>
       </c>
     </row>
@@ -8727,7 +8747,7 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8742,10 +8762,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -8756,13 +8776,13 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="0" t="s">
         <v>53</v>
       </c>
@@ -8770,41 +8790,41 @@
       <c r="I6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35" t="s">
+      <c r="T6" s="37"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AA6" s="35" t="s">
+      <c r="AA6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8846,32 +8866,32 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="W7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" s="36" t="s">
+      <c r="Y7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="36"/>
+      <c r="AB7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
@@ -8892,10 +8912,10 @@
       <c r="F8" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="G8" s="52" t="n">
+      <c r="G8" s="54" t="n">
         <v>94100</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="17" t="n">
         <v>462.84</v>
       </c>
       <c r="I8" s="12" t="n">
@@ -8907,114 +8927,114 @@
       <c r="K8" s="16" t="n">
         <v>2755.2</v>
       </c>
-      <c r="M8" s="53" t="n">
+      <c r="M8" s="55" t="n">
         <v>4883.62380107405</v>
       </c>
-      <c r="N8" s="53" t="n">
+      <c r="N8" s="55" t="n">
         <v>597.947416</v>
       </c>
-      <c r="O8" s="53" t="n">
+      <c r="O8" s="55" t="n">
         <v>100.662819194539</v>
       </c>
-      <c r="P8" s="54" t="n">
+      <c r="P8" s="56" t="n">
         <v>272866.730851195</v>
       </c>
-      <c r="Q8" s="53" t="n">
+      <c r="Q8" s="55" t="n">
         <v>14729.5544755844</v>
       </c>
-      <c r="S8" s="55" t="n">
+      <c r="S8" s="57" t="n">
         <v>1.08190639088785</v>
       </c>
-      <c r="T8" s="55" t="n">
+      <c r="T8" s="57" t="n">
         <v>1.28430593636013</v>
       </c>
-      <c r="U8" s="55" t="n">
+      <c r="U8" s="57" t="n">
         <v>1.09934154517046</v>
       </c>
-      <c r="V8" s="56" t="n">
+      <c r="V8" s="58" t="n">
         <v>400</v>
       </c>
-      <c r="W8" s="56" t="n">
+      <c r="W8" s="58" t="n">
         <v>170</v>
       </c>
-      <c r="X8" s="56" t="n">
+      <c r="X8" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="Y8" s="57" t="n">
+      <c r="Y8" s="59" t="n">
         <v>1.0016154488756</v>
       </c>
-      <c r="Z8" s="58" t="n">
+      <c r="Z8" s="60" t="n">
         <v>440.091308532457</v>
       </c>
-      <c r="AA8" s="59" t="n">
+      <c r="AA8" s="61" t="n">
         <v>1.0126955638957</v>
       </c>
-      <c r="AB8" s="60" t="n">
+      <c r="AB8" s="62" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+    <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="n">
+      <c r="D9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="18" t="n">
         <v>4300</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="24" t="n">
         <v>462.84</v>
       </c>
-      <c r="I9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20" t="n">
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="n">
         <v>405.9</v>
       </c>
-      <c r="M9" s="23" t="n">
+      <c r="M9" s="24" t="n">
         <v>664.383873929008</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="N9" s="24" t="n">
         <v>64.35</v>
       </c>
-      <c r="O9" s="23" t="n">
+      <c r="O9" s="24" t="n">
         <v>2.93435344709898</v>
       </c>
-      <c r="P9" s="23" t="n">
+      <c r="P9" s="24" t="n">
         <v>12004.747774744</v>
       </c>
-      <c r="Q9" s="23" t="n">
+      <c r="Q9" s="24" t="n">
         <v>669.603873929008</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="44"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -9044,7 +9064,7 @@
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="20" t="n">
+      <c r="K10" s="21" t="n">
         <v>1918.8</v>
       </c>
       <c r="M10" s="25" t="n">
@@ -9062,19 +9082,19 @@
       <c r="Q10" s="25" t="n">
         <v>200.894387429621</v>
       </c>
-      <c r="S10" s="61"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="44"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -9092,7 +9112,7 @@
       <c r="F11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="49" t="n">
+      <c r="G11" s="51" t="n">
         <v>88700</v>
       </c>
       <c r="H11" s="25" t="n">
@@ -9104,53 +9124,53 @@
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="20" t="n">
+      <c r="K11" s="21" t="n">
         <v>430.5</v>
       </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="65" t="n">
+      <c r="M11" s="67" t="n">
         <v>4101.68787971542</v>
       </c>
-      <c r="N11" s="65" t="n">
+      <c r="N11" s="67" t="n">
         <v>502.3983</v>
       </c>
-      <c r="O11" s="65" t="n">
+      <c r="O11" s="67" t="n">
         <v>94.308005897611</v>
       </c>
-      <c r="P11" s="66" t="n">
+      <c r="P11" s="68" t="n">
         <v>254214.091308532</v>
       </c>
-      <c r="Q11" s="65" t="n">
+      <c r="Q11" s="67" t="n">
         <v>13859.0562142258</v>
       </c>
-      <c r="S11" s="55" t="n">
+      <c r="S11" s="57" t="n">
         <v>1.09752082843216</v>
       </c>
-      <c r="T11" s="55" t="n">
+      <c r="T11" s="57" t="n">
         <v>1.33837694116401</v>
       </c>
-      <c r="U11" s="55" t="n">
+      <c r="U11" s="57" t="n">
         <v>1.10603553648305</v>
       </c>
-      <c r="V11" s="56" t="n">
+      <c r="V11" s="58" t="n">
         <v>400</v>
       </c>
-      <c r="W11" s="56" t="n">
+      <c r="W11" s="58" t="n">
         <v>170</v>
       </c>
-      <c r="X11" s="56" t="n">
+      <c r="X11" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="Y11" s="57" t="n">
+      <c r="Y11" s="59" t="n">
         <v>1.00173418596283</v>
       </c>
-      <c r="Z11" s="67" t="n">
+      <c r="Z11" s="69" t="n">
         <v>440.091308532428</v>
       </c>
-      <c r="AA11" s="59" t="n">
+      <c r="AA11" s="61" t="n">
         <v>1.01349298228606</v>
       </c>
-      <c r="AB11" s="68" t="n">
+      <c r="AB11" s="70" t="n">
         <v>187</v>
       </c>
     </row>
@@ -9173,10 +9193,10 @@
       <c r="F12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="52" t="n">
+      <c r="G12" s="54" t="n">
         <v>93500</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="17" t="n">
         <v>603.9264</v>
       </c>
       <c r="I12" s="12" t="n">
@@ -9188,54 +9208,54 @@
       <c r="K12" s="12" t="n">
         <v>73.8</v>
       </c>
-      <c r="M12" s="53" t="n">
+      <c r="M12" s="55" t="n">
         <v>7573.08681603734</v>
       </c>
-      <c r="N12" s="53" t="n">
+      <c r="N12" s="55" t="n">
         <v>748.4103508</v>
       </c>
-      <c r="O12" s="53" t="n">
+      <c r="O12" s="55" t="n">
         <v>103.94542547284</v>
       </c>
-      <c r="P12" s="54" t="n">
+      <c r="P12" s="56" t="n">
         <v>276673.447645972</v>
       </c>
-      <c r="Q12" s="53" t="n">
+      <c r="Q12" s="55" t="n">
         <v>17798.579176992</v>
       </c>
-      <c r="S12" s="55" t="n">
+      <c r="S12" s="57" t="n">
         <v>1.3103093965625</v>
       </c>
-      <c r="T12" s="55" t="n">
+      <c r="T12" s="57" t="n">
         <v>1.41020277134307</v>
       </c>
-      <c r="U12" s="55" t="n">
+      <c r="U12" s="57" t="n">
         <v>1.01731677937545</v>
       </c>
-      <c r="V12" s="56" t="n">
+      <c r="V12" s="58" t="n">
         <v>2350</v>
       </c>
-      <c r="W12" s="56" t="n">
+      <c r="W12" s="58" t="n">
         <v>307</v>
       </c>
-      <c r="X12" s="56" t="n">
+      <c r="X12" s="58" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y12" s="57" t="n">
+      <c r="Y12" s="59" t="n">
         <v>1.00658575328646</v>
       </c>
-      <c r="Z12" s="58" t="n">
+      <c r="Z12" s="60" t="n">
         <v>1810.18165731058</v>
       </c>
-      <c r="AA12" s="59" t="n">
+      <c r="AA12" s="61" t="n">
         <v>1.11057062366776</v>
       </c>
-      <c r="AB12" s="60" t="n">
+      <c r="AB12" s="62" t="n">
         <v>1968</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -9253,7 +9273,7 @@
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="49" t="n">
+      <c r="G13" s="51" t="n">
         <v>11300</v>
       </c>
       <c r="H13" s="25" t="n">
@@ -9269,49 +9289,49 @@
         <v>0</v>
       </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="65" t="n">
+      <c r="M13" s="67" t="n">
         <v>1498.16266528764</v>
       </c>
-      <c r="N13" s="65" t="n">
+      <c r="N13" s="67" t="n">
         <v>64.4609888</v>
       </c>
-      <c r="O13" s="65" t="n">
+      <c r="O13" s="67" t="n">
         <v>5.00056436916406</v>
       </c>
-      <c r="P13" s="66" t="n">
+      <c r="P13" s="68" t="n">
         <v>33448</v>
       </c>
-      <c r="Q13" s="65" t="n">
+      <c r="Q13" s="67" t="n">
         <v>1880.16266528764</v>
       </c>
-      <c r="S13" s="55" t="n">
+      <c r="S13" s="57" t="n">
         <v>2.56858801413851</v>
       </c>
-      <c r="T13" s="55" t="n">
+      <c r="T13" s="57" t="n">
         <v>5.76257044322597</v>
       </c>
-      <c r="U13" s="55" t="n">
+      <c r="U13" s="57" t="n">
         <v>1.35995937000625</v>
       </c>
-      <c r="V13" s="56" t="n">
+      <c r="V13" s="58" t="n">
         <v>2350</v>
       </c>
-      <c r="W13" s="56" t="n">
+      <c r="W13" s="58" t="n">
         <v>307</v>
       </c>
-      <c r="X13" s="56" t="n">
+      <c r="X13" s="58" t="n">
         <v>1.8</v>
       </c>
-      <c r="Y13" s="57" t="n">
+      <c r="Y13" s="59" t="n">
         <v>1.05721575481923</v>
       </c>
-      <c r="Z13" s="67" t="n">
+      <c r="Z13" s="69" t="n">
         <v>1810.18165731057</v>
       </c>
-      <c r="AA13" s="59" t="n">
+      <c r="AA13" s="61" t="n">
         <v>2.04671794432155</v>
       </c>
-      <c r="AB13" s="68" t="n">
+      <c r="AB13" s="70" t="n">
         <v>1968</v>
       </c>
     </row>
@@ -9364,16 +9384,16 @@
       <c r="Q14" s="25" t="n">
         <v>384.383104176867</v>
       </c>
-      <c r="S14" s="61"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="44"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -9406,7 +9426,7 @@
       <c r="J15" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="K15" s="29" t="n">
+      <c r="K15" s="30" t="n">
         <v>73.8</v>
       </c>
       <c r="M15" s="25" t="n">
@@ -9424,16 +9444,16 @@
       <c r="Q15" s="25" t="n">
         <v>553.922024357405</v>
       </c>
-      <c r="S15" s="61"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="44"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -9484,16 +9504,16 @@
       <c r="Q16" s="25" t="n">
         <v>12910.1392354957</v>
       </c>
-      <c r="S16" s="61"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="44"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -9544,28 +9564,28 @@
       <c r="Q17" s="25" t="n">
         <v>2069.97214767442</v>
       </c>
-      <c r="S17" s="61"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="44"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="44"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
